--- a/data/cats_sites.xlsx
+++ b/data/cats_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\Projects\cats-in-culture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8CBFF4-7C24-4366-835A-EAB779AB98FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB3F9D-8737-499C-AE47-21422B2697E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{25E0FA9D-57FB-41BF-9D6A-C321CDEA44D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25E0FA9D-57FB-41BF-9D6A-C321CDEA44D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Site Name</t>
   </si>
@@ -222,13 +222,52 @@
     <t>775 - 940 CE</t>
   </si>
   <si>
-    <t>PopupTitle</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Tomb T (of Pharaoh Den) at The Umm El Qa'ab Necropolis, Abydos, Egypt</t>
+  </si>
+  <si>
+    <t>ModalTitle</t>
+  </si>
+  <si>
+    <t>images/shillourokambosCat.jpg</t>
+  </si>
+  <si>
+    <t>Image File Path 2</t>
+  </si>
+  <si>
+    <t>images/shillourokambosCat2.jpg</t>
+  </si>
+  <si>
+    <t>images/klimonas.jpg</t>
+  </si>
+  <si>
+    <t>images/bubastis.jpg</t>
+  </si>
+  <si>
+    <t>images/QuanhucunLeopardCat.jpg</t>
+  </si>
+  <si>
+    <t>images/UmmelQaab.jpg</t>
+  </si>
+  <si>
+    <t>images/baqetiii.jpg</t>
+  </si>
+  <si>
+    <t>images/Speos_Atermidos.jpg</t>
+  </si>
+  <si>
+    <t>images/kourosRelief.jpg</t>
+  </si>
+  <si>
+    <t>images/HouseofFaunCat200BCE.jpg</t>
+  </si>
+  <si>
+    <t>images/northUmbriaCat.jpg</t>
+  </si>
+  <si>
+    <t>images/DzhankentSite.jpg</t>
   </si>
 </sst>
 </file>
@@ -606,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB76A9-895F-4FB3-9E91-6E8B557BEFE3}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +658,11 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="58.5703125" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -642,13 +682,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,11 +707,17 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
       <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -684,11 +733,14 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -704,11 +756,14 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -719,16 +774,19 @@
         <v>31.908100000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -738,11 +796,14 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -752,11 +813,14 @@
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -766,11 +830,14 @@
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -780,11 +847,14 @@
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -794,11 +864,14 @@
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -808,11 +881,14 @@
       <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -822,7 +898,10 @@
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
     </row>

--- a/data/cats_sites.xlsx
+++ b/data/cats_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\Projects\cats-in-culture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB3F9D-8737-499C-AE47-21422B2697E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A98A3AF-A16A-4B29-8B7C-F054C64BB18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25E0FA9D-57FB-41BF-9D6A-C321CDEA44D7}"/>
+    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{25E0FA9D-57FB-41BF-9D6A-C321CDEA44D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Site Name</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>Description</t>
@@ -268,6 +262,15 @@
   </si>
   <si>
     <t>images/DzhankentSite.jpg</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Northumberland, England</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,33 +670,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>34.749600000000001</v>
@@ -702,24 +705,24 @@
         <v>33.117699999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>34.712499999999999</v>
@@ -728,21 +731,21 @@
         <v>33.133699999999997</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>35.393900000000002</v>
@@ -751,21 +754,21 @@
         <v>109.188</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>26.176600000000001</v>
@@ -774,135 +777,177 @@
         <v>31.908100000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>27.933800000000002</v>
+      </c>
+      <c r="C6">
+        <v>30.883600000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>30.572700000000001</v>
+      </c>
+      <c r="C7">
+        <v>31.51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>27.899000000000001</v>
+      </c>
+      <c r="C8">
+        <v>30.866599999999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>37.989100000000001</v>
+      </c>
+      <c r="C9">
+        <v>23.732199999999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>40.751399999999997</v>
+      </c>
+      <c r="C10">
+        <v>14.484999999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>55.166600000000003</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>45.55</v>
+      </c>
+      <c r="C12">
+        <v>61.866599999999998</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
